--- a/01-데이터수집/01-3.Selenium활용데이터 수집/요일별_네이버_웹툰.xlsx
+++ b/01-데이터수집/01-3.Selenium활용데이터 수집/요일별_네이버_웹툰.xlsx
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>6.24</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>8.95</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>9.57</t>
         </is>
       </c>
     </row>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>9.57</t>
         </is>
       </c>
     </row>
@@ -15026,7 +15026,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>9.96</t>
         </is>
       </c>
     </row>
@@ -18501,7 +18501,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>8.39</t>
         </is>
       </c>
     </row>
